--- a/cloud/zuma.xlsx
+++ b/cloud/zuma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUAN\Desktop\thanh-luan-nguyen\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279E2246-CEDA-40A0-B36B-B59D2806C8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B35B8EE-6F54-466A-8311-7C82EAD8EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Game</t>
     <phoneticPr fontId="1"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>Rank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maxes</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -381,10 +385,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$P$25</c:f>
+              <c:f>Sheet1!$C$25:$Q$25</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>21608.18181818182</c:v>
                 </c:pt>
@@ -426,6 +430,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>23770</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24252.727272727272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,8 +1161,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
@@ -1448,23 +1455,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S33"/>
+  <dimension ref="B1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="8.625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="30.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="25" width="8.625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="35.375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1476,14 +1485,17 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="Q1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AC1" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -1529,16 +1541,31 @@
       <c r="P2" s="2">
         <v>24190</v>
       </c>
-      <c r="Q2" s="5">
-        <f>AVERAGE(C2:P2)</f>
-        <v>25030</v>
-      </c>
-      <c r="R2" s="1">
-        <f t="shared" ref="R2:R23" si="0">RANK(Q2,Q$2:Q$23)</f>
+      <c r="Q2" s="2">
+        <v>25860</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="5">
+        <f>AVERAGE(C2:Q2)</f>
+        <v>25085.333333333332</v>
+      </c>
+      <c r="AA2" s="1">
+        <f t="shared" ref="AA2:AA23" si="0">RANK(Z2,Z$2:Z$23)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AC2" s="21">
+        <f>MAX(C2:Q2)</f>
+        <v>29280</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1584,1116 +1611,1431 @@
       <c r="P3" s="2">
         <v>23970</v>
       </c>
-      <c r="Q3" s="5">
-        <f t="shared" ref="Q3:Q32" si="1">AVERAGE(C3:P3)</f>
-        <v>22167.142857142859</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="Q3" s="2">
+        <v>24750</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="5">
+        <f>AVERAGE(C3:Q3)</f>
+        <v>22339.333333333332</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AC3" s="21">
+        <f t="shared" ref="AC3:AC23" si="1">MAX(C3:Q3)</f>
+        <v>27290</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18650</v>
+      </c>
+      <c r="D4" s="2">
+        <v>24600</v>
+      </c>
+      <c r="E4" s="2">
+        <v>21500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20790</v>
+      </c>
+      <c r="G4" s="2">
+        <v>23560</v>
+      </c>
+      <c r="H4" s="2">
+        <v>21090</v>
+      </c>
+      <c r="I4" s="2">
+        <v>23990</v>
+      </c>
+      <c r="J4" s="18">
+        <v>24030</v>
+      </c>
+      <c r="K4" s="2">
+        <v>27480</v>
+      </c>
+      <c r="L4" s="2">
+        <v>24110</v>
+      </c>
+      <c r="M4" s="2">
+        <v>20700</v>
+      </c>
+      <c r="N4" s="2">
+        <v>25490</v>
+      </c>
+      <c r="O4" s="2">
+        <v>24720</v>
+      </c>
+      <c r="P4" s="2">
+        <v>24780</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>21830</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="5">
+        <f>AVERAGE(C4:Q4)</f>
+        <v>23154.666666666668</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AC4" s="21">
+        <f t="shared" si="1"/>
+        <v>27480</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>25560</v>
+      </c>
+      <c r="D5" s="2">
+        <v>29390</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21640</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20240</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16610</v>
+      </c>
+      <c r="H5" s="2">
+        <v>21670</v>
+      </c>
+      <c r="I5" s="2">
+        <v>23310</v>
+      </c>
+      <c r="J5" s="18">
+        <v>20220</v>
+      </c>
+      <c r="K5" s="2">
+        <v>22280</v>
+      </c>
+      <c r="L5" s="2">
+        <v>17330</v>
+      </c>
+      <c r="M5" s="2">
+        <v>20380</v>
+      </c>
+      <c r="N5" s="2">
+        <v>25930</v>
+      </c>
+      <c r="O5" s="2">
+        <v>23710</v>
+      </c>
+      <c r="P5" s="2">
+        <v>22380</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>27130</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="5">
+        <f>AVERAGE(C5:Q5)</f>
+        <v>22518.666666666668</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AC5" s="21">
+        <f t="shared" si="1"/>
+        <v>29390</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25940</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22770</v>
+      </c>
+      <c r="E6" s="2">
+        <v>25630</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25230</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25960</v>
+      </c>
+      <c r="H6" s="2">
+        <v>25590</v>
+      </c>
+      <c r="I6" s="2">
+        <v>22710</v>
+      </c>
+      <c r="J6" s="18">
+        <v>25280</v>
+      </c>
+      <c r="K6" s="2">
+        <v>27040</v>
+      </c>
+      <c r="L6" s="2">
+        <v>27020</v>
+      </c>
+      <c r="M6" s="2">
+        <v>26030</v>
+      </c>
+      <c r="N6" s="2">
+        <v>27120</v>
+      </c>
+      <c r="O6" s="2">
+        <v>7800</v>
+      </c>
+      <c r="P6" s="2">
+        <v>31110</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>19850</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="5">
+        <f>AVERAGE(C6:Q6)</f>
+        <v>24338.666666666668</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC6" s="21">
+        <f t="shared" si="1"/>
+        <v>31110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>26290</v>
+      </c>
+      <c r="D7" s="2">
+        <v>24880</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25890</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25260</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20710</v>
+      </c>
+      <c r="H7" s="2">
+        <v>25120</v>
+      </c>
+      <c r="I7" s="2">
+        <v>24440</v>
+      </c>
+      <c r="J7" s="18">
+        <v>24150</v>
+      </c>
+      <c r="K7" s="2">
+        <v>24980</v>
+      </c>
+      <c r="L7" s="2">
+        <v>23010</v>
+      </c>
+      <c r="M7" s="2">
+        <v>25580</v>
+      </c>
+      <c r="N7" s="2">
+        <v>24830</v>
+      </c>
+      <c r="O7" s="2">
+        <v>16470</v>
+      </c>
+      <c r="P7" s="2">
+        <v>22470</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>31210</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="5">
+        <f>AVERAGE(C7:Q7)</f>
+        <v>24352.666666666668</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AC7" s="21">
+        <f t="shared" si="1"/>
+        <v>31210</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20460</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23060</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18430</v>
+      </c>
+      <c r="F8" s="2">
+        <v>27160</v>
+      </c>
+      <c r="G8" s="2">
+        <v>24170</v>
+      </c>
+      <c r="H8" s="2">
+        <v>26690</v>
+      </c>
+      <c r="I8" s="2">
+        <v>22770</v>
+      </c>
+      <c r="J8" s="1">
+        <v>25130</v>
+      </c>
+      <c r="K8" s="2">
+        <v>24920</v>
+      </c>
+      <c r="L8" s="2">
+        <v>19910</v>
+      </c>
+      <c r="M8" s="2">
+        <v>18880</v>
+      </c>
+      <c r="N8" s="2">
+        <v>24960</v>
+      </c>
+      <c r="O8" s="2">
+        <v>24960</v>
+      </c>
+      <c r="P8" s="2">
+        <v>22900</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>19710</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="5">
+        <f>AVERAGE(C8:Q8)</f>
+        <v>22940.666666666668</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AC8" s="21">
+        <f t="shared" si="1"/>
+        <v>27160</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21590</v>
+      </c>
+      <c r="D9" s="8">
+        <v>27650</v>
+      </c>
+      <c r="E9" s="8">
+        <v>17380</v>
+      </c>
+      <c r="F9" s="8">
+        <v>19260</v>
+      </c>
+      <c r="G9" s="8">
+        <v>21990</v>
+      </c>
+      <c r="H9" s="8">
+        <v>24460</v>
+      </c>
+      <c r="I9" s="8">
+        <v>24990</v>
+      </c>
+      <c r="J9" s="19">
+        <v>24960</v>
+      </c>
+      <c r="K9" s="8">
+        <v>25390</v>
+      </c>
+      <c r="L9" s="8">
+        <v>23250</v>
+      </c>
+      <c r="M9" s="8">
+        <v>22110</v>
+      </c>
+      <c r="N9" s="8">
+        <v>25050</v>
+      </c>
+      <c r="O9" s="8">
+        <v>18960</v>
+      </c>
+      <c r="P9" s="8">
+        <v>26490</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>25910</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="5">
+        <f>AVERAGE(C9:Q9)</f>
+        <v>23296</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AC9" s="21">
+        <f t="shared" si="1"/>
+        <v>27650</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>19960</v>
+      </c>
+      <c r="D10" s="8">
+        <v>19660</v>
+      </c>
+      <c r="E10" s="8">
+        <v>23080</v>
+      </c>
+      <c r="F10" s="8">
+        <v>21180</v>
+      </c>
+      <c r="G10" s="8">
+        <v>21300</v>
+      </c>
+      <c r="H10" s="8">
+        <v>22740</v>
+      </c>
+      <c r="I10" s="8">
+        <v>22130</v>
+      </c>
+      <c r="J10" s="19">
+        <v>24630</v>
+      </c>
+      <c r="K10" s="8">
+        <v>22440</v>
+      </c>
+      <c r="L10" s="8">
+        <v>20670</v>
+      </c>
+      <c r="M10" s="8">
+        <v>25010</v>
+      </c>
+      <c r="N10" s="8">
+        <v>19970</v>
+      </c>
+      <c r="O10" s="8">
+        <v>22290</v>
+      </c>
+      <c r="P10" s="8">
+        <v>23480</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>24770</v>
+      </c>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="5">
+        <f>AVERAGE(C10:Q10)</f>
+        <v>22220.666666666668</v>
+      </c>
+      <c r="AA10" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>18650</v>
-      </c>
-      <c r="D4" s="2">
-        <v>24600</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="AC10" s="21">
+        <f t="shared" si="1"/>
+        <v>25010</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8">
+        <v>21210</v>
+      </c>
+      <c r="D11" s="8">
+        <v>19220</v>
+      </c>
+      <c r="E11" s="8">
+        <v>24140</v>
+      </c>
+      <c r="F11" s="8">
+        <v>21420</v>
+      </c>
+      <c r="G11" s="8">
+        <v>17450</v>
+      </c>
+      <c r="H11" s="8">
+        <v>23230</v>
+      </c>
+      <c r="I11" s="8">
+        <v>25960</v>
+      </c>
+      <c r="J11" s="19">
+        <v>21410</v>
+      </c>
+      <c r="K11" s="8">
+        <v>20500</v>
+      </c>
+      <c r="L11" s="8">
+        <v>20390</v>
+      </c>
+      <c r="M11" s="8">
+        <v>19590</v>
+      </c>
+      <c r="N11" s="8">
+        <v>18060</v>
+      </c>
+      <c r="O11" s="8">
+        <v>20250</v>
+      </c>
+      <c r="P11" s="8">
+        <v>17610</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>21490</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="5">
+        <f>AVERAGE(C11:Q11)</f>
+        <v>20795.333333333332</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AC11" s="21">
+        <f t="shared" si="1"/>
+        <v>25960</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8">
+        <v>21640</v>
+      </c>
+      <c r="D12" s="8">
+        <v>21540</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8390</v>
+      </c>
+      <c r="F12" s="8">
+        <v>16770</v>
+      </c>
+      <c r="G12" s="8">
+        <v>20460</v>
+      </c>
+      <c r="H12" s="8">
+        <v>19680</v>
+      </c>
+      <c r="I12" s="8">
+        <v>21200</v>
+      </c>
+      <c r="J12" s="19">
+        <v>23490</v>
+      </c>
+      <c r="K12" s="8">
+        <v>18360</v>
+      </c>
+      <c r="L12" s="8">
+        <v>15250</v>
+      </c>
+      <c r="M12" s="8">
+        <v>18940</v>
+      </c>
+      <c r="N12" s="8">
+        <v>23720</v>
+      </c>
+      <c r="O12" s="8">
+        <v>19930</v>
+      </c>
+      <c r="P12" s="8">
+        <v>16590</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>24280</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="5">
+        <f>AVERAGE(C12:Q12)</f>
+        <v>19349.333333333332</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AC12" s="21">
+        <f t="shared" si="1"/>
+        <v>24280</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8">
+        <v>23590</v>
+      </c>
+      <c r="D13" s="8">
+        <v>26600</v>
+      </c>
+      <c r="E13" s="8">
+        <v>22740</v>
+      </c>
+      <c r="F13" s="8">
+        <v>22230</v>
+      </c>
+      <c r="G13" s="8">
+        <v>24370</v>
+      </c>
+      <c r="H13" s="8">
+        <v>26740</v>
+      </c>
+      <c r="I13" s="8">
+        <v>30310</v>
+      </c>
+      <c r="J13" s="19">
+        <v>22440</v>
+      </c>
+      <c r="K13" s="8">
+        <v>22870</v>
+      </c>
+      <c r="L13" s="8">
+        <v>26570</v>
+      </c>
+      <c r="M13" s="8">
+        <v>24770</v>
+      </c>
+      <c r="N13" s="8">
+        <v>25500</v>
+      </c>
+      <c r="O13" s="8">
+        <v>22240</v>
+      </c>
+      <c r="P13" s="8">
+        <v>26550</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>27620</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="5">
+        <f>AVERAGE(C13:Q13)</f>
+        <v>25009.333333333332</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC13" s="21">
+        <f t="shared" si="1"/>
+        <v>30310</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8">
+        <v>21650</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20860</v>
+      </c>
+      <c r="E14" s="8">
+        <v>21380</v>
+      </c>
+      <c r="F14" s="8">
+        <v>24850</v>
+      </c>
+      <c r="G14" s="8">
+        <v>24370</v>
+      </c>
+      <c r="H14" s="8">
+        <v>20040</v>
+      </c>
+      <c r="I14" s="8">
+        <v>22720</v>
+      </c>
+      <c r="J14" s="19">
+        <v>20930</v>
+      </c>
+      <c r="K14" s="8">
+        <v>23550</v>
+      </c>
+      <c r="L14" s="8">
+        <v>20100</v>
+      </c>
+      <c r="M14" s="8">
+        <v>21340</v>
+      </c>
+      <c r="N14" s="8">
+        <v>21660</v>
+      </c>
+      <c r="O14" s="8">
+        <v>24770</v>
+      </c>
+      <c r="P14" s="8">
+        <v>20190</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>23690</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="5">
+        <f>AVERAGE(C14:Q14)</f>
+        <v>22140</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AC14" s="21">
+        <f t="shared" si="1"/>
+        <v>24850</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8">
+        <v>19210</v>
+      </c>
+      <c r="D15" s="8">
+        <v>22940</v>
+      </c>
+      <c r="E15" s="8">
+        <v>23820</v>
+      </c>
+      <c r="F15" s="8">
+        <v>22760</v>
+      </c>
+      <c r="G15" s="8">
+        <v>19750</v>
+      </c>
+      <c r="H15" s="8">
+        <v>23070</v>
+      </c>
+      <c r="I15" s="8">
+        <v>22330</v>
+      </c>
+      <c r="J15" s="19">
+        <v>19530</v>
+      </c>
+      <c r="K15" s="8">
+        <v>22410</v>
+      </c>
+      <c r="L15" s="8">
+        <v>21480</v>
+      </c>
+      <c r="M15" s="8">
+        <v>22670</v>
+      </c>
+      <c r="N15" s="8">
+        <v>22080</v>
+      </c>
+      <c r="O15" s="8">
+        <v>21980</v>
+      </c>
+      <c r="P15" s="8">
+        <v>22310</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>24970</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="5">
+        <f>AVERAGE(C15:Q15)</f>
+        <v>22087.333333333332</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AC15" s="21">
+        <f t="shared" si="1"/>
+        <v>24970</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>21320</v>
+      </c>
+      <c r="D16" s="2">
+        <v>23030</v>
+      </c>
+      <c r="E16" s="2">
+        <v>24410</v>
+      </c>
+      <c r="F16" s="2">
+        <v>27890</v>
+      </c>
+      <c r="G16" s="2">
+        <v>26590</v>
+      </c>
+      <c r="H16" s="2">
+        <v>23150</v>
+      </c>
+      <c r="I16" s="2">
+        <v>23280</v>
+      </c>
+      <c r="J16" s="18">
+        <v>19800</v>
+      </c>
+      <c r="K16" s="2">
+        <v>26950</v>
+      </c>
+      <c r="L16" s="2">
+        <v>25290</v>
+      </c>
+      <c r="M16" s="2">
+        <v>24820</v>
+      </c>
+      <c r="N16" s="2">
+        <v>29320</v>
+      </c>
+      <c r="O16" s="2">
+        <v>26620</v>
+      </c>
+      <c r="P16" s="2">
+        <v>21320</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>24370</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="5">
+        <f>AVERAGE(C16:Q16)</f>
+        <v>24544</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AC16" s="21">
+        <f t="shared" si="1"/>
+        <v>29320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>14730</v>
+      </c>
+      <c r="D17" s="2">
+        <v>21480</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20700</v>
+      </c>
+      <c r="F17" s="2">
+        <v>27360</v>
+      </c>
+      <c r="G17" s="2">
+        <v>19490</v>
+      </c>
+      <c r="H17" s="2">
+        <v>20010</v>
+      </c>
+      <c r="I17" s="2">
+        <v>19100</v>
+      </c>
+      <c r="J17" s="18">
+        <v>25410</v>
+      </c>
+      <c r="K17" s="2">
+        <v>19140</v>
+      </c>
+      <c r="L17" s="2">
+        <v>23070</v>
+      </c>
+      <c r="M17" s="2">
+        <v>19670</v>
+      </c>
+      <c r="N17" s="2">
+        <v>21670</v>
+      </c>
+      <c r="O17" s="2">
+        <v>18300</v>
+      </c>
+      <c r="P17" s="2">
+        <v>22480</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>23760</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="5">
+        <f>AVERAGE(C17:Q17)</f>
+        <v>21091.333333333332</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AC17" s="21">
+        <f t="shared" si="1"/>
+        <v>27360</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20590</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19860</v>
+      </c>
+      <c r="E18" s="2">
+        <v>22740</v>
+      </c>
+      <c r="F18" s="2">
+        <v>21210</v>
+      </c>
+      <c r="G18" s="2">
+        <v>23600</v>
+      </c>
+      <c r="H18" s="2">
         <v>21500</v>
       </c>
-      <c r="F4" s="2">
-        <v>20790</v>
-      </c>
-      <c r="G4" s="2">
-        <v>23560</v>
-      </c>
-      <c r="H4" s="2">
-        <v>21090</v>
-      </c>
-      <c r="I4" s="2">
-        <v>23990</v>
-      </c>
-      <c r="J4" s="18">
-        <v>24030</v>
-      </c>
-      <c r="K4" s="2">
-        <v>27480</v>
-      </c>
-      <c r="L4" s="2">
-        <v>24110</v>
-      </c>
-      <c r="M4" s="2">
-        <v>20700</v>
-      </c>
-      <c r="N4" s="2">
-        <v>25490</v>
-      </c>
-      <c r="O4" s="2">
-        <v>24720</v>
-      </c>
-      <c r="P4" s="2">
-        <v>24780</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="I18" s="2">
+        <v>18370</v>
+      </c>
+      <c r="J18" s="18">
+        <v>18590</v>
+      </c>
+      <c r="K18" s="2">
+        <v>22270</v>
+      </c>
+      <c r="L18" s="2">
+        <v>25640</v>
+      </c>
+      <c r="M18" s="2">
+        <v>22620</v>
+      </c>
+      <c r="N18" s="2">
+        <v>24680</v>
+      </c>
+      <c r="O18" s="2">
+        <v>19040</v>
+      </c>
+      <c r="P18" s="2">
+        <v>28360</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>23120</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="5">
+        <f>AVERAGE(C18:Q18)</f>
+        <v>22146</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AC18" s="21">
         <f t="shared" si="1"/>
-        <v>23249.285714285714</v>
-      </c>
-      <c r="R4" s="1">
+        <v>28360</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>17920</v>
+      </c>
+      <c r="D19" s="2">
+        <v>22100</v>
+      </c>
+      <c r="E19" s="2">
+        <v>25620</v>
+      </c>
+      <c r="F19" s="2">
+        <v>22860</v>
+      </c>
+      <c r="G19" s="2">
+        <v>19250</v>
+      </c>
+      <c r="H19" s="2">
+        <v>19370</v>
+      </c>
+      <c r="I19" s="2">
+        <v>20230</v>
+      </c>
+      <c r="J19" s="18">
+        <v>23360</v>
+      </c>
+      <c r="K19" s="2">
+        <v>21900</v>
+      </c>
+      <c r="L19" s="2">
+        <v>25150</v>
+      </c>
+      <c r="M19" s="2">
+        <v>22580</v>
+      </c>
+      <c r="N19" s="2">
+        <v>24140</v>
+      </c>
+      <c r="O19" s="2">
+        <v>23930</v>
+      </c>
+      <c r="P19" s="2">
+        <v>22690</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>20820</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="5">
+        <f>AVERAGE(C19:Q19)</f>
+        <v>22128</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AC19" s="21">
+        <f t="shared" si="1"/>
+        <v>25620</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19240</v>
+      </c>
+      <c r="D20" s="2">
+        <v>21600</v>
+      </c>
+      <c r="E20" s="2">
+        <v>24790</v>
+      </c>
+      <c r="F20" s="2">
+        <v>22930</v>
+      </c>
+      <c r="G20" s="2">
+        <v>21110</v>
+      </c>
+      <c r="H20" s="2">
+        <v>22600</v>
+      </c>
+      <c r="I20" s="2">
+        <v>27050</v>
+      </c>
+      <c r="J20" s="18">
+        <v>26320</v>
+      </c>
+      <c r="K20" s="2">
+        <v>24690</v>
+      </c>
+      <c r="L20" s="2">
+        <v>25070</v>
+      </c>
+      <c r="M20" s="2">
+        <v>27220</v>
+      </c>
+      <c r="N20" s="2">
+        <v>19150</v>
+      </c>
+      <c r="O20" s="2">
+        <v>20420</v>
+      </c>
+      <c r="P20" s="2">
+        <v>21340</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>27070</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="5">
+        <f>AVERAGE(C20:Q20)</f>
+        <v>23373.333333333332</v>
+      </c>
+      <c r="AA20" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>25560</v>
-      </c>
-      <c r="D5" s="2">
-        <v>29390</v>
-      </c>
-      <c r="E5" s="2">
-        <v>21640</v>
-      </c>
-      <c r="F5" s="2">
-        <v>20240</v>
-      </c>
-      <c r="G5" s="2">
-        <v>16610</v>
-      </c>
-      <c r="H5" s="2">
-        <v>21670</v>
-      </c>
-      <c r="I5" s="2">
-        <v>23310</v>
-      </c>
-      <c r="J5" s="18">
-        <v>20220</v>
-      </c>
-      <c r="K5" s="2">
-        <v>22280</v>
-      </c>
-      <c r="L5" s="2">
-        <v>17330</v>
-      </c>
-      <c r="M5" s="2">
-        <v>20380</v>
-      </c>
-      <c r="N5" s="2">
-        <v>25930</v>
-      </c>
-      <c r="O5" s="2">
-        <v>23710</v>
-      </c>
-      <c r="P5" s="2">
-        <v>22380</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="AC20" s="21">
         <f t="shared" si="1"/>
-        <v>22189.285714285714</v>
-      </c>
-      <c r="R5" s="1">
+        <v>27220</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>23280</v>
+      </c>
+      <c r="D21" s="2">
+        <v>23950</v>
+      </c>
+      <c r="E21" s="2">
+        <v>24590</v>
+      </c>
+      <c r="F21" s="2">
+        <v>22370</v>
+      </c>
+      <c r="G21" s="2">
+        <v>22760</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20720</v>
+      </c>
+      <c r="I21" s="2">
+        <v>25450</v>
+      </c>
+      <c r="J21" s="18">
+        <v>25700</v>
+      </c>
+      <c r="K21" s="2">
+        <v>17760</v>
+      </c>
+      <c r="L21" s="2">
+        <v>20420</v>
+      </c>
+      <c r="M21" s="2">
+        <v>22730</v>
+      </c>
+      <c r="N21" s="2">
+        <v>21910</v>
+      </c>
+      <c r="O21" s="2">
+        <v>13110</v>
+      </c>
+      <c r="P21" s="2">
+        <v>24430</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>21580</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="5">
+        <f>AVERAGE(C21:Q21)</f>
+        <v>22050.666666666668</v>
+      </c>
+      <c r="AA21" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC21" s="21">
+        <f t="shared" si="1"/>
+        <v>25700</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20660</v>
+      </c>
+      <c r="D22" s="2">
+        <v>24030</v>
+      </c>
+      <c r="E22" s="2">
+        <v>21840</v>
+      </c>
+      <c r="F22" s="2">
+        <v>25480</v>
+      </c>
+      <c r="G22" s="2">
+        <v>23720</v>
+      </c>
+      <c r="H22" s="2">
+        <v>19140</v>
+      </c>
+      <c r="I22" s="2">
+        <v>27830</v>
+      </c>
+      <c r="J22" s="18">
+        <v>23870</v>
+      </c>
+      <c r="K22" s="2">
+        <v>23820</v>
+      </c>
+      <c r="L22" s="2">
+        <v>23810</v>
+      </c>
+      <c r="M22" s="2">
+        <v>22290</v>
+      </c>
+      <c r="N22" s="2">
+        <v>21910</v>
+      </c>
+      <c r="O22" s="2">
+        <v>22670</v>
+      </c>
+      <c r="P22" s="2">
+        <v>25260</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>25520</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="5">
+        <f>AVERAGE(C22:Q22)</f>
+        <v>23456.666666666668</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C6" s="2">
-        <v>25940</v>
-      </c>
-      <c r="D6" s="2">
-        <v>22770</v>
-      </c>
-      <c r="E6" s="2">
-        <v>25630</v>
-      </c>
-      <c r="F6" s="2">
-        <v>25230</v>
-      </c>
-      <c r="G6" s="2">
-        <v>25960</v>
-      </c>
-      <c r="H6" s="2">
-        <v>25590</v>
-      </c>
-      <c r="I6" s="2">
-        <v>22710</v>
-      </c>
-      <c r="J6" s="18">
-        <v>25280</v>
-      </c>
-      <c r="K6" s="2">
-        <v>27040</v>
-      </c>
-      <c r="L6" s="2">
-        <v>27020</v>
-      </c>
-      <c r="M6" s="2">
-        <v>26030</v>
-      </c>
-      <c r="N6" s="2">
-        <v>27120</v>
-      </c>
-      <c r="O6" s="2">
-        <v>7800</v>
-      </c>
-      <c r="P6" s="2">
-        <v>31110</v>
-      </c>
-      <c r="Q6" s="5">
+      <c r="AC22" s="21">
         <f t="shared" si="1"/>
-        <v>24659.285714285714</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>26290</v>
-      </c>
-      <c r="D7" s="2">
-        <v>24880</v>
-      </c>
-      <c r="E7" s="2">
-        <v>25890</v>
-      </c>
-      <c r="F7" s="2">
-        <v>25260</v>
-      </c>
-      <c r="G7" s="2">
-        <v>20710</v>
-      </c>
-      <c r="H7" s="2">
-        <v>25120</v>
-      </c>
-      <c r="I7" s="2">
-        <v>24440</v>
-      </c>
-      <c r="J7" s="18">
-        <v>24150</v>
-      </c>
-      <c r="K7" s="2">
-        <v>24980</v>
-      </c>
-      <c r="L7" s="2">
-        <v>23010</v>
-      </c>
-      <c r="M7" s="2">
-        <v>25580</v>
-      </c>
-      <c r="N7" s="2">
-        <v>24830</v>
-      </c>
-      <c r="O7" s="2">
-        <v>16470</v>
-      </c>
-      <c r="P7" s="2">
-        <v>22470</v>
-      </c>
-      <c r="Q7" s="5">
-        <f t="shared" si="1"/>
-        <v>23862.857142857141</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>20460</v>
-      </c>
-      <c r="D8" s="2">
-        <v>23060</v>
-      </c>
-      <c r="E8" s="2">
-        <v>18430</v>
-      </c>
-      <c r="F8" s="2">
-        <v>27160</v>
-      </c>
-      <c r="G8" s="2">
-        <v>24170</v>
-      </c>
-      <c r="H8" s="2">
-        <v>26690</v>
-      </c>
-      <c r="I8" s="2">
-        <v>22770</v>
-      </c>
-      <c r="J8" s="1">
-        <v>25130</v>
-      </c>
-      <c r="K8" s="2">
-        <v>24920</v>
-      </c>
-      <c r="L8" s="2">
-        <v>19910</v>
-      </c>
-      <c r="M8" s="2">
-        <v>18880</v>
-      </c>
-      <c r="N8" s="2">
-        <v>24960</v>
-      </c>
-      <c r="O8" s="2">
-        <v>24960</v>
-      </c>
-      <c r="P8" s="2">
-        <v>22900</v>
-      </c>
-      <c r="Q8" s="5">
-        <f t="shared" si="1"/>
-        <v>23171.428571428572</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8">
-        <v>21590</v>
-      </c>
-      <c r="D9" s="8">
-        <v>27650</v>
-      </c>
-      <c r="E9" s="8">
-        <v>17380</v>
-      </c>
-      <c r="F9" s="8">
-        <v>19260</v>
-      </c>
-      <c r="G9" s="8">
-        <v>21990</v>
-      </c>
-      <c r="H9" s="8">
-        <v>24460</v>
-      </c>
-      <c r="I9" s="8">
-        <v>24990</v>
-      </c>
-      <c r="J9" s="19">
-        <v>24960</v>
-      </c>
-      <c r="K9" s="8">
-        <v>25390</v>
-      </c>
-      <c r="L9" s="8">
-        <v>23250</v>
-      </c>
-      <c r="M9" s="8">
-        <v>22110</v>
-      </c>
-      <c r="N9" s="8">
-        <v>25050</v>
-      </c>
-      <c r="O9" s="8">
-        <v>18960</v>
-      </c>
-      <c r="P9" s="8">
-        <v>26490</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="1"/>
-        <v>23109.285714285714</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8">
-        <v>19960</v>
-      </c>
-      <c r="D10" s="8">
-        <v>19660</v>
-      </c>
-      <c r="E10" s="8">
-        <v>23080</v>
-      </c>
-      <c r="F10" s="8">
-        <v>21180</v>
-      </c>
-      <c r="G10" s="8">
-        <v>21300</v>
-      </c>
-      <c r="H10" s="8">
-        <v>22740</v>
-      </c>
-      <c r="I10" s="8">
-        <v>22130</v>
-      </c>
-      <c r="J10" s="19">
-        <v>24630</v>
-      </c>
-      <c r="K10" s="8">
-        <v>22440</v>
-      </c>
-      <c r="L10" s="8">
-        <v>20670</v>
-      </c>
-      <c r="M10" s="8">
-        <v>25010</v>
-      </c>
-      <c r="N10" s="8">
-        <v>19970</v>
-      </c>
-      <c r="O10" s="8">
-        <v>22290</v>
-      </c>
-      <c r="P10" s="8">
-        <v>23480</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="1"/>
-        <v>22038.571428571428</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8">
-        <v>21210</v>
-      </c>
-      <c r="D11" s="8">
-        <v>19220</v>
-      </c>
-      <c r="E11" s="8">
-        <v>24140</v>
-      </c>
-      <c r="F11" s="8">
-        <v>21420</v>
-      </c>
-      <c r="G11" s="8">
-        <v>17450</v>
-      </c>
-      <c r="H11" s="8">
-        <v>23230</v>
-      </c>
-      <c r="I11" s="8">
-        <v>25960</v>
-      </c>
-      <c r="J11" s="19">
-        <v>21410</v>
-      </c>
-      <c r="K11" s="8">
-        <v>20500</v>
-      </c>
-      <c r="L11" s="8">
-        <v>20390</v>
-      </c>
-      <c r="M11" s="8">
-        <v>19590</v>
-      </c>
-      <c r="N11" s="8">
-        <v>18060</v>
-      </c>
-      <c r="O11" s="8">
-        <v>20250</v>
-      </c>
-      <c r="P11" s="8">
-        <v>17610</v>
-      </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="1"/>
-        <v>20745.714285714286</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8">
-        <v>21640</v>
-      </c>
-      <c r="D12" s="8">
-        <v>21540</v>
-      </c>
-      <c r="E12" s="8">
-        <v>8390</v>
-      </c>
-      <c r="F12" s="8">
-        <v>16770</v>
-      </c>
-      <c r="G12" s="8">
-        <v>20460</v>
-      </c>
-      <c r="H12" s="8">
-        <v>19680</v>
-      </c>
-      <c r="I12" s="8">
-        <v>21200</v>
-      </c>
-      <c r="J12" s="19">
-        <v>23490</v>
-      </c>
-      <c r="K12" s="8">
-        <v>18360</v>
-      </c>
-      <c r="L12" s="8">
-        <v>15250</v>
-      </c>
-      <c r="M12" s="8">
-        <v>18940</v>
-      </c>
-      <c r="N12" s="8">
-        <v>23720</v>
-      </c>
-      <c r="O12" s="8">
-        <v>19930</v>
-      </c>
-      <c r="P12" s="8">
-        <v>16590</v>
-      </c>
-      <c r="Q12" s="5">
-        <f t="shared" si="1"/>
-        <v>18997.142857142859</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8">
-        <v>23590</v>
-      </c>
-      <c r="D13" s="8">
-        <v>26600</v>
-      </c>
-      <c r="E13" s="8">
-        <v>22740</v>
-      </c>
-      <c r="F13" s="8">
-        <v>22230</v>
-      </c>
-      <c r="G13" s="8">
-        <v>24370</v>
-      </c>
-      <c r="H13" s="8">
-        <v>26740</v>
-      </c>
-      <c r="I13" s="8">
-        <v>30310</v>
-      </c>
-      <c r="J13" s="19">
-        <v>22440</v>
-      </c>
-      <c r="K13" s="8">
-        <v>22870</v>
-      </c>
-      <c r="L13" s="8">
-        <v>26570</v>
-      </c>
-      <c r="M13" s="8">
-        <v>24770</v>
-      </c>
-      <c r="N13" s="8">
-        <v>25500</v>
-      </c>
-      <c r="O13" s="8">
-        <v>22240</v>
-      </c>
-      <c r="P13" s="8">
-        <v>26550</v>
-      </c>
-      <c r="Q13" s="5">
-        <f t="shared" si="1"/>
-        <v>24822.857142857141</v>
-      </c>
-      <c r="R13" s="1">
+        <v>27830</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="8">
+        <v>24060</v>
+      </c>
+      <c r="D23" s="8">
+        <v>27270</v>
+      </c>
+      <c r="E23" s="8">
+        <v>19550</v>
+      </c>
+      <c r="F23" s="8">
+        <v>26900</v>
+      </c>
+      <c r="G23" s="8">
+        <v>21090</v>
+      </c>
+      <c r="H23" s="8">
+        <v>29630</v>
+      </c>
+      <c r="I23" s="8">
+        <v>25300</v>
+      </c>
+      <c r="J23" s="19">
+        <v>23850.000000000051</v>
+      </c>
+      <c r="K23" s="8">
+        <v>26140</v>
+      </c>
+      <c r="L23" s="8">
+        <v>23680</v>
+      </c>
+      <c r="M23" s="8">
+        <v>24550</v>
+      </c>
+      <c r="N23" s="8">
+        <v>22890</v>
+      </c>
+      <c r="O23" s="8">
+        <v>23380</v>
+      </c>
+      <c r="P23" s="8">
+        <v>32040</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>24250</v>
+      </c>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="5">
+        <f>AVERAGE(C23:Q23)</f>
+        <v>24972.000000000004</v>
+      </c>
+      <c r="AA23" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8">
-        <v>21650</v>
-      </c>
-      <c r="D14" s="8">
-        <v>20860</v>
-      </c>
-      <c r="E14" s="8">
-        <v>21380</v>
-      </c>
-      <c r="F14" s="8">
-        <v>24850</v>
-      </c>
-      <c r="G14" s="8">
-        <v>24370</v>
-      </c>
-      <c r="H14" s="8">
-        <v>20040</v>
-      </c>
-      <c r="I14" s="8">
-        <v>22720</v>
-      </c>
-      <c r="J14" s="19">
-        <v>20930</v>
-      </c>
-      <c r="K14" s="8">
-        <v>23550</v>
-      </c>
-      <c r="L14" s="8">
-        <v>20100</v>
-      </c>
-      <c r="M14" s="8">
-        <v>21340</v>
-      </c>
-      <c r="N14" s="8">
-        <v>21660</v>
-      </c>
-      <c r="O14" s="8">
-        <v>24770</v>
-      </c>
-      <c r="P14" s="8">
-        <v>20190</v>
-      </c>
-      <c r="Q14" s="5">
+      <c r="AC23" s="21">
         <f t="shared" si="1"/>
-        <v>22029.285714285714</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8">
-        <v>19210</v>
-      </c>
-      <c r="D15" s="8">
-        <v>22940</v>
-      </c>
-      <c r="E15" s="8">
-        <v>23820</v>
-      </c>
-      <c r="F15" s="8">
-        <v>22760</v>
-      </c>
-      <c r="G15" s="8">
-        <v>19750</v>
-      </c>
-      <c r="H15" s="8">
-        <v>23070</v>
-      </c>
-      <c r="I15" s="8">
-        <v>22330</v>
-      </c>
-      <c r="J15" s="19">
-        <v>19530</v>
-      </c>
-      <c r="K15" s="8">
-        <v>22410</v>
-      </c>
-      <c r="L15" s="8">
-        <v>21480</v>
-      </c>
-      <c r="M15" s="8">
-        <v>22670</v>
-      </c>
-      <c r="N15" s="8">
-        <v>22080</v>
-      </c>
-      <c r="O15" s="8">
-        <v>21980</v>
-      </c>
-      <c r="P15" s="8">
-        <v>22310</v>
-      </c>
-      <c r="Q15" s="5">
-        <f t="shared" si="1"/>
-        <v>21881.428571428572</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2">
-        <v>21320</v>
-      </c>
-      <c r="D16" s="2">
-        <v>23030</v>
-      </c>
-      <c r="E16" s="2">
-        <v>24410</v>
-      </c>
-      <c r="F16" s="2">
-        <v>27890</v>
-      </c>
-      <c r="G16" s="2">
-        <v>26590</v>
-      </c>
-      <c r="H16" s="2">
-        <v>23150</v>
-      </c>
-      <c r="I16" s="2">
-        <v>23280</v>
-      </c>
-      <c r="J16" s="18">
-        <v>19800</v>
-      </c>
-      <c r="K16" s="2">
-        <v>26950</v>
-      </c>
-      <c r="L16" s="2">
-        <v>25290</v>
-      </c>
-      <c r="M16" s="2">
-        <v>24820</v>
-      </c>
-      <c r="N16" s="2">
-        <v>29320</v>
-      </c>
-      <c r="O16" s="2">
-        <v>26620</v>
-      </c>
-      <c r="P16" s="2">
-        <v>21320</v>
-      </c>
-      <c r="Q16" s="5">
-        <f t="shared" si="1"/>
-        <v>24556.428571428572</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2">
-        <v>14730</v>
-      </c>
-      <c r="D17" s="2">
-        <v>21480</v>
-      </c>
-      <c r="E17" s="2">
-        <v>20700</v>
-      </c>
-      <c r="F17" s="2">
-        <v>27360</v>
-      </c>
-      <c r="G17" s="2">
-        <v>19490</v>
-      </c>
-      <c r="H17" s="2">
-        <v>20010</v>
-      </c>
-      <c r="I17" s="2">
-        <v>19100</v>
-      </c>
-      <c r="J17" s="18">
-        <v>25410</v>
-      </c>
-      <c r="K17" s="2">
-        <v>19140</v>
-      </c>
-      <c r="L17" s="2">
-        <v>23070</v>
-      </c>
-      <c r="M17" s="2">
-        <v>19670</v>
-      </c>
-      <c r="N17" s="2">
-        <v>21670</v>
-      </c>
-      <c r="O17" s="2">
-        <v>18300</v>
-      </c>
-      <c r="P17" s="2">
-        <v>22480</v>
-      </c>
-      <c r="Q17" s="5">
-        <f t="shared" si="1"/>
-        <v>20900.714285714286</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20590</v>
-      </c>
-      <c r="D18" s="2">
-        <v>19860</v>
-      </c>
-      <c r="E18" s="2">
-        <v>22740</v>
-      </c>
-      <c r="F18" s="2">
-        <v>21210</v>
-      </c>
-      <c r="G18" s="2">
-        <v>23600</v>
-      </c>
-      <c r="H18" s="2">
-        <v>21500</v>
-      </c>
-      <c r="I18" s="2">
-        <v>18370</v>
-      </c>
-      <c r="J18" s="18">
-        <v>18590</v>
-      </c>
-      <c r="K18" s="2">
-        <v>22270</v>
-      </c>
-      <c r="L18" s="2">
-        <v>25640</v>
-      </c>
-      <c r="M18" s="2">
-        <v>22620</v>
-      </c>
-      <c r="N18" s="2">
-        <v>24680</v>
-      </c>
-      <c r="O18" s="2">
-        <v>19040</v>
-      </c>
-      <c r="P18" s="2">
-        <v>28360</v>
-      </c>
-      <c r="Q18" s="5">
-        <f t="shared" si="1"/>
-        <v>22076.428571428572</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2">
-        <v>17920</v>
-      </c>
-      <c r="D19" s="2">
-        <v>22100</v>
-      </c>
-      <c r="E19" s="2">
-        <v>25620</v>
-      </c>
-      <c r="F19" s="2">
-        <v>22860</v>
-      </c>
-      <c r="G19" s="2">
-        <v>19250</v>
-      </c>
-      <c r="H19" s="2">
-        <v>19370</v>
-      </c>
-      <c r="I19" s="2">
-        <v>20230</v>
-      </c>
-      <c r="J19" s="18">
-        <v>23360</v>
-      </c>
-      <c r="K19" s="2">
-        <v>21900</v>
-      </c>
-      <c r="L19" s="2">
-        <v>25150</v>
-      </c>
-      <c r="M19" s="2">
-        <v>22580</v>
-      </c>
-      <c r="N19" s="2">
-        <v>24140</v>
-      </c>
-      <c r="O19" s="2">
-        <v>23930</v>
-      </c>
-      <c r="P19" s="2">
-        <v>22690</v>
-      </c>
-      <c r="Q19" s="5">
-        <f t="shared" si="1"/>
-        <v>22221.428571428572</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19240</v>
-      </c>
-      <c r="D20" s="2">
-        <v>21600</v>
-      </c>
-      <c r="E20" s="2">
-        <v>24790</v>
-      </c>
-      <c r="F20" s="2">
-        <v>22930</v>
-      </c>
-      <c r="G20" s="2">
-        <v>21110</v>
-      </c>
-      <c r="H20" s="2">
-        <v>22600</v>
-      </c>
-      <c r="I20" s="2">
-        <v>27050</v>
-      </c>
-      <c r="J20" s="18">
-        <v>26320</v>
-      </c>
-      <c r="K20" s="2">
-        <v>24690</v>
-      </c>
-      <c r="L20" s="2">
-        <v>25070</v>
-      </c>
-      <c r="M20" s="2">
-        <v>27220</v>
-      </c>
-      <c r="N20" s="2">
-        <v>19150</v>
-      </c>
-      <c r="O20" s="2">
-        <v>20420</v>
-      </c>
-      <c r="P20" s="2">
-        <v>21340</v>
-      </c>
-      <c r="Q20" s="5">
-        <f t="shared" si="1"/>
-        <v>23109.285714285714</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2">
-        <v>23280</v>
-      </c>
-      <c r="D21" s="2">
-        <v>23950</v>
-      </c>
-      <c r="E21" s="2">
-        <v>24590</v>
-      </c>
-      <c r="F21" s="2">
-        <v>22370</v>
-      </c>
-      <c r="G21" s="2">
-        <v>22760</v>
-      </c>
-      <c r="H21" s="2">
-        <v>20720</v>
-      </c>
-      <c r="I21" s="2">
-        <v>25450</v>
-      </c>
-      <c r="J21" s="18">
-        <v>25700</v>
-      </c>
-      <c r="K21" s="2">
-        <v>17760</v>
-      </c>
-      <c r="L21" s="2">
-        <v>20420</v>
-      </c>
-      <c r="M21" s="2">
-        <v>22730</v>
-      </c>
-      <c r="N21" s="2">
-        <v>21910</v>
-      </c>
-      <c r="O21" s="2">
-        <v>13110</v>
-      </c>
-      <c r="P21" s="2">
-        <v>24430</v>
-      </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="1"/>
-        <v>22084.285714285714</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20660</v>
-      </c>
-      <c r="D22" s="2">
-        <v>24030</v>
-      </c>
-      <c r="E22" s="2">
-        <v>21840</v>
-      </c>
-      <c r="F22" s="2">
-        <v>25480</v>
-      </c>
-      <c r="G22" s="2">
-        <v>23720</v>
-      </c>
-      <c r="H22" s="2">
-        <v>19140</v>
-      </c>
-      <c r="I22" s="2">
-        <v>27830</v>
-      </c>
-      <c r="J22" s="18">
-        <v>23870</v>
-      </c>
-      <c r="K22" s="2">
-        <v>23820</v>
-      </c>
-      <c r="L22" s="2">
-        <v>23810</v>
-      </c>
-      <c r="M22" s="2">
-        <v>22290</v>
-      </c>
-      <c r="N22" s="2">
-        <v>21910</v>
-      </c>
-      <c r="O22" s="2">
-        <v>22670</v>
-      </c>
-      <c r="P22" s="2">
-        <v>25260</v>
-      </c>
-      <c r="Q22" s="5">
-        <f t="shared" si="1"/>
-        <v>23309.285714285714</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="8">
-        <v>24060</v>
-      </c>
-      <c r="D23" s="8">
-        <v>27270</v>
-      </c>
-      <c r="E23" s="8">
-        <v>19550</v>
-      </c>
-      <c r="F23" s="8">
-        <v>26900</v>
-      </c>
-      <c r="G23" s="8">
-        <v>21090</v>
-      </c>
-      <c r="H23" s="8">
-        <v>29630</v>
-      </c>
-      <c r="I23" s="8">
-        <v>25300</v>
-      </c>
-      <c r="J23" s="19">
-        <v>23850.000000000051</v>
-      </c>
-      <c r="K23" s="8">
-        <v>26140</v>
-      </c>
-      <c r="L23" s="8">
-        <v>23680</v>
-      </c>
-      <c r="M23" s="8">
-        <v>24550</v>
-      </c>
-      <c r="N23" s="8">
-        <v>22890</v>
-      </c>
-      <c r="O23" s="8">
-        <v>23380</v>
-      </c>
-      <c r="P23" s="8">
         <v>32040</v>
       </c>
-      <c r="Q23" s="5">
-        <f t="shared" si="1"/>
-        <v>25023.571428571431</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
@@ -2726,7 +3068,7 @@
         <v>521420</v>
       </c>
       <c r="J24" s="20">
-        <f t="shared" ref="J24:P24" si="3">SUM(J2:J23)</f>
+        <f t="shared" ref="J24:Q24" si="3">SUM(J2:J23)</f>
         <v>507910.00000000006</v>
       </c>
       <c r="K24" s="20">
@@ -2753,12 +3095,28 @@
         <f t="shared" si="3"/>
         <v>522940</v>
       </c>
-      <c r="Q24" s="5">
-        <f t="shared" si="1"/>
+      <c r="Q24" s="20">
+        <f t="shared" si="3"/>
+        <v>533560</v>
+      </c>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="5">
+        <f>AVERAGE(C24:P24)</f>
         <v>501235</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AC24" s="21">
+        <f>SUM(AC2:AC23)</f>
+        <v>609400</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
@@ -2787,7 +3145,7 @@
         <v>22693.18181818182</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" ref="I25:P25" si="5">AVERAGE(I2:I23)</f>
+        <f t="shared" ref="I25:Q25" si="5">AVERAGE(I2:I23)</f>
         <v>23700.909090909092</v>
       </c>
       <c r="J25" s="20">
@@ -2818,76 +3176,96 @@
         <f t="shared" si="5"/>
         <v>23770</v>
       </c>
-      <c r="Q25" s="5">
-        <f t="shared" si="1"/>
+      <c r="Q25" s="20">
+        <f t="shared" si="5"/>
+        <v>24252.727272727272</v>
+      </c>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="5">
+        <f>AVERAGE(C25:P25)</f>
         <v>22783.409090909092</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AC25" s="21">
+        <f>AVERAGE(AC2:AC23)</f>
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="1">
-        <f>RANK(C25,$C$25:$P$25)</f>
-        <v>13</v>
+        <f>RANK(C25,$C$25:$Q$25)</f>
+        <v>14</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:Q26" si="6">RANK(D25,$C$25:$P$25)</f>
-        <v>4</v>
+        <f t="shared" ref="D26:Q26" si="6">RANK(D25,$C$25:$Q$25)</f>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="2">
         <v>10</v>
       </c>
@@ -2920,7 +3298,7 @@
         <v>23595.714285714286</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:P30" si="8">AVERAGE(J2:J8)</f>
+        <f t="shared" ref="J30:Q30" si="8">AVERAGE(J2:J8)</f>
         <v>23374.285714285714</v>
       </c>
       <c r="K30" s="3">
@@ -2947,12 +3325,24 @@
         <f t="shared" si="8"/>
         <v>24542.857142857141</v>
       </c>
-      <c r="Q30" s="5">
-        <f t="shared" si="1"/>
+      <c r="Q30" s="3">
+        <f t="shared" si="8"/>
+        <v>24334.285714285714</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="5">
+        <f>AVERAGE(C30:P30)</f>
         <v>23475.612244897959</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="2">
         <v>11</v>
       </c>
@@ -2985,7 +3375,7 @@
         <v>24234.285714285714</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" ref="J31:P31" si="10">AVERAGE(J9:J15)</f>
+        <f t="shared" ref="J31:Q31" si="10">AVERAGE(J9:J15)</f>
         <v>22484.285714285714</v>
       </c>
       <c r="K31" s="3">
@@ -3012,12 +3402,24 @@
         <f t="shared" si="10"/>
         <v>21888.571428571428</v>
       </c>
-      <c r="Q31" s="5">
-        <f t="shared" si="1"/>
+      <c r="Q31" s="3">
+        <f t="shared" si="10"/>
+        <v>24675.714285714286</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="5">
+        <f>AVERAGE(C31:P31)</f>
         <v>21946.326530612245</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="2">
         <v>12</v>
       </c>
@@ -3050,7 +3452,7 @@
         <v>23044.285714285714</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" ref="J32:P32" si="12">AVERAGE(J16:J22)</f>
+        <f t="shared" ref="J32:Q32" si="12">AVERAGE(J16:J22)</f>
         <v>23292.857142857141</v>
       </c>
       <c r="K32" s="3">
@@ -3077,13 +3479,25 @@
         <f t="shared" si="12"/>
         <v>23697.142857142859</v>
       </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="1"/>
+      <c r="Q32" s="3">
+        <f t="shared" si="12"/>
+        <v>23748.571428571428</v>
+      </c>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="5">
+        <f>AVERAGE(C32:P32)</f>
         <v>22608.265306122448</v>
       </c>
     </row>
-    <row r="33" spans="17:17" x14ac:dyDescent="0.4">
-      <c r="Q33" s="21"/>
+    <row r="33" spans="26:26" x14ac:dyDescent="0.4">
+      <c r="Z33" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3093,6 +3507,114 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{DF4E706F-BE19-42ED-9102-BC15BA0BD3D2}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C2:Y2</xm:f>
+              <xm:sqref>AB2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C3:Y3</xm:f>
+              <xm:sqref>AB3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C4:Y4</xm:f>
+              <xm:sqref>AB4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C5:Y5</xm:f>
+              <xm:sqref>AB5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C6:Y6</xm:f>
+              <xm:sqref>AB6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C7:Y7</xm:f>
+              <xm:sqref>AB7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C8:Y8</xm:f>
+              <xm:sqref>AB8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C9:Y9</xm:f>
+              <xm:sqref>AB9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C10:Y10</xm:f>
+              <xm:sqref>AB10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C11:Y11</xm:f>
+              <xm:sqref>AB11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C12:Y12</xm:f>
+              <xm:sqref>AB12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C13:Y13</xm:f>
+              <xm:sqref>AB13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C14:Y14</xm:f>
+              <xm:sqref>AB14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C15:Y15</xm:f>
+              <xm:sqref>AB15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C16:Y16</xm:f>
+              <xm:sqref>AB16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C17:Y17</xm:f>
+              <xm:sqref>AB17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C18:Y18</xm:f>
+              <xm:sqref>AB18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C19:Y19</xm:f>
+              <xm:sqref>AB19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C20:Y20</xm:f>
+              <xm:sqref>AB20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C21:Y21</xm:f>
+              <xm:sqref>AB21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C22:Y22</xm:f>
+              <xm:sqref>AB22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C23:Y23</xm:f>
+              <xm:sqref>AB23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C24:Y24</xm:f>
+              <xm:sqref>AB24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C25:Y25</xm:f>
+              <xm:sqref>AB25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{39FA9AC6-61E5-4A24-ACDD-375547F68510}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -3104,124 +3626,16 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!C30:P30</xm:f>
-              <xm:sqref>S30</xm:sqref>
+              <xm:f>Sheet1!C30:Y30</xm:f>
+              <xm:sqref>AB30</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!C31:P31</xm:f>
-              <xm:sqref>S31</xm:sqref>
+              <xm:f>Sheet1!C31:Y31</xm:f>
+              <xm:sqref>AB31</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!C32:P32</xm:f>
-              <xm:sqref>S32</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{DF4E706F-BE19-42ED-9102-BC15BA0BD3D2}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!C2:P2</xm:f>
-              <xm:sqref>S2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C3:P3</xm:f>
-              <xm:sqref>S3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C4:P4</xm:f>
-              <xm:sqref>S4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C5:P5</xm:f>
-              <xm:sqref>S5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C6:P6</xm:f>
-              <xm:sqref>S6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C7:P7</xm:f>
-              <xm:sqref>S7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C8:P8</xm:f>
-              <xm:sqref>S8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C9:P9</xm:f>
-              <xm:sqref>S9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C10:P10</xm:f>
-              <xm:sqref>S10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C11:P11</xm:f>
-              <xm:sqref>S11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C12:P12</xm:f>
-              <xm:sqref>S12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C13:P13</xm:f>
-              <xm:sqref>S13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C14:P14</xm:f>
-              <xm:sqref>S14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C15:P15</xm:f>
-              <xm:sqref>S15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C16:P16</xm:f>
-              <xm:sqref>S16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C17:P17</xm:f>
-              <xm:sqref>S17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C18:P18</xm:f>
-              <xm:sqref>S18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C19:P19</xm:f>
-              <xm:sqref>S19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C20:P20</xm:f>
-              <xm:sqref>S20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C21:P21</xm:f>
-              <xm:sqref>S21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C22:P22</xm:f>
-              <xm:sqref>S22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C23:P23</xm:f>
-              <xm:sqref>S23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C24:P24</xm:f>
-              <xm:sqref>S24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C25:P25</xm:f>
-              <xm:sqref>S25</xm:sqref>
+              <xm:f>Sheet1!C32:Y32</xm:f>
+              <xm:sqref>AB32</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -3257,12 +3671,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>_xlfn.XLOOKUP(A2,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
+        <f>_xlfn.XLOOKUP(A2,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
         <v>10_1</v>
       </c>
       <c r="C2" s="11">
-        <f>_xlfn.XLOOKUP(B2,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>25030</v>
+        <f>_xlfn.XLOOKUP(B2,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>25085.333333333332</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -3274,12 +3688,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>_xlfn.XLOOKUP(A3,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>13_1</v>
+        <f>_xlfn.XLOOKUP(A3,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>11_5</v>
       </c>
       <c r="C3" s="11">
-        <f>_xlfn.XLOOKUP(B3,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>25023.571428571431</v>
+        <f>_xlfn.XLOOKUP(B3,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>25009.333333333332</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -3291,12 +3705,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="str">
-        <f>_xlfn.XLOOKUP(A4,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>11_5</v>
+        <f>_xlfn.XLOOKUP(A4,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>13_1</v>
       </c>
       <c r="C4" s="13">
-        <f>_xlfn.XLOOKUP(B4,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>24822.857142857141</v>
+        <f>_xlfn.XLOOKUP(B4,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>24972.000000000004</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -3311,12 +3725,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="str">
-        <f>_xlfn.XLOOKUP(A5,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>10_5</v>
+        <f>_xlfn.XLOOKUP(A5,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>12_1</v>
       </c>
       <c r="C5" s="13">
-        <f>_xlfn.XLOOKUP(B5,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>24659.285714285714</v>
+        <f>_xlfn.XLOOKUP(B5,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>24544</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -3331,12 +3745,12 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>_xlfn.XLOOKUP(A6,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>12_1</v>
+        <f>_xlfn.XLOOKUP(A6,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>10_6</v>
       </c>
       <c r="C6" s="11">
-        <f>_xlfn.XLOOKUP(B6,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>24556.428571428572</v>
+        <f>_xlfn.XLOOKUP(B6,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>24352.666666666668</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="16"/>
@@ -3348,12 +3762,12 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>_xlfn.XLOOKUP(A7,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>10_6</v>
+        <f>_xlfn.XLOOKUP(A7,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>10_5</v>
       </c>
       <c r="C7" s="11">
-        <f>_xlfn.XLOOKUP(B7,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>23862.857142857141</v>
+        <f>_xlfn.XLOOKUP(B7,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>24338.666666666668</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="16"/>
@@ -3365,12 +3779,12 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>_xlfn.XLOOKUP(A8,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
+        <f>_xlfn.XLOOKUP(A8,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
         <v>12_7</v>
       </c>
       <c r="C8" s="11">
-        <f>_xlfn.XLOOKUP(B8,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>23309.285714285714</v>
+        <f>_xlfn.XLOOKUP(B8,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>23456.666666666668</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="16"/>
@@ -3382,12 +3796,12 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>_xlfn.XLOOKUP(A9,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>10_3</v>
+        <f>_xlfn.XLOOKUP(A9,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>12_5</v>
       </c>
       <c r="C9" s="11">
-        <f>_xlfn.XLOOKUP(B9,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>23249.285714285714</v>
+        <f>_xlfn.XLOOKUP(B9,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>23373.333333333332</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="16"/>
@@ -3399,12 +3813,12 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>_xlfn.XLOOKUP(A10,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>10_7</v>
+        <f>_xlfn.XLOOKUP(A10,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>11_1</v>
       </c>
       <c r="C10" s="11">
-        <f>_xlfn.XLOOKUP(B10,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>23171.428571428572</v>
+        <f>_xlfn.XLOOKUP(B10,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>23296</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="16"/>
@@ -3416,12 +3830,12 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>_xlfn.XLOOKUP(A11,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>11_1</v>
+        <f>_xlfn.XLOOKUP(A11,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>10_3</v>
       </c>
       <c r="C11" s="11">
-        <f>_xlfn.XLOOKUP(B11,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>23109.285714285714</v>
+        <f>_xlfn.XLOOKUP(B11,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>23154.666666666668</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -3432,13 +3846,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="e">
-        <f>_xlfn.XLOOKUP(A12,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C12" s="11" t="e">
-        <f>_xlfn.XLOOKUP(B12,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>#N/A</v>
+      <c r="B12" t="str">
+        <f>_xlfn.XLOOKUP(A12,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>10_7</v>
+      </c>
+      <c r="C12" s="11">
+        <f>_xlfn.XLOOKUP(B12,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>22940.666666666668</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3450,12 +3864,12 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>_xlfn.XLOOKUP(A13,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>12_4</v>
+        <f>_xlfn.XLOOKUP(A13,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>10_4</v>
       </c>
       <c r="C13" s="11">
-        <f>_xlfn.XLOOKUP(B13,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>22221.428571428572</v>
+        <f>_xlfn.XLOOKUP(B13,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>22518.666666666668</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3467,12 +3881,12 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>_xlfn.XLOOKUP(A14,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>10_4</v>
+        <f>_xlfn.XLOOKUP(A14,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>10_2</v>
       </c>
       <c r="C14" s="11">
-        <f>_xlfn.XLOOKUP(B14,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>22189.285714285714</v>
+        <f>_xlfn.XLOOKUP(B14,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>22339.333333333332</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -3484,12 +3898,12 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>_xlfn.XLOOKUP(A15,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>10_2</v>
+        <f>_xlfn.XLOOKUP(A15,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>11_2</v>
       </c>
       <c r="C15" s="11">
-        <f>_xlfn.XLOOKUP(B15,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>22167.142857142859</v>
+        <f>_xlfn.XLOOKUP(B15,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>22220.666666666668</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -3501,12 +3915,12 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>_xlfn.XLOOKUP(A16,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>12_6</v>
+        <f>_xlfn.XLOOKUP(A16,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>12_3</v>
       </c>
       <c r="C16" s="11">
-        <f>_xlfn.XLOOKUP(B16,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>22084.285714285714</v>
+        <f>_xlfn.XLOOKUP(B16,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>22146</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -3518,12 +3932,12 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>_xlfn.XLOOKUP(A17,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>12_3</v>
+        <f>_xlfn.XLOOKUP(A17,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>11_6</v>
       </c>
       <c r="C17" s="11">
-        <f>_xlfn.XLOOKUP(B17,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>22076.428571428572</v>
+        <f>_xlfn.XLOOKUP(B17,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>22140</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -3535,12 +3949,12 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>_xlfn.XLOOKUP(A18,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>11_2</v>
+        <f>_xlfn.XLOOKUP(A18,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>12_4</v>
       </c>
       <c r="C18" s="11">
-        <f>_xlfn.XLOOKUP(B18,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>22038.571428571428</v>
+        <f>_xlfn.XLOOKUP(B18,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>22128</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -3552,12 +3966,12 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>_xlfn.XLOOKUP(A19,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>11_6</v>
+        <f>_xlfn.XLOOKUP(A19,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>11_7</v>
       </c>
       <c r="C19" s="11">
-        <f>_xlfn.XLOOKUP(B19,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>22029.285714285714</v>
+        <f>_xlfn.XLOOKUP(B19,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>22087.333333333332</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -3569,12 +3983,12 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>_xlfn.XLOOKUP(A20,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
-        <v>11_7</v>
+        <f>_xlfn.XLOOKUP(A20,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
+        <v>12_6</v>
       </c>
       <c r="C20" s="11">
-        <f>_xlfn.XLOOKUP(B20,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>21881.428571428572</v>
+        <f>_xlfn.XLOOKUP(B20,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>22050.666666666668</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -3586,12 +4000,12 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>_xlfn.XLOOKUP(A21,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
+        <f>_xlfn.XLOOKUP(A21,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
         <v>12_2</v>
       </c>
       <c r="C21" s="11">
-        <f>_xlfn.XLOOKUP(B21,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>20900.714285714286</v>
+        <f>_xlfn.XLOOKUP(B21,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>21091.333333333332</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -3603,12 +4017,12 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>_xlfn.XLOOKUP(A22,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
+        <f>_xlfn.XLOOKUP(A22,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
         <v>11_3</v>
       </c>
       <c r="C22" s="11">
-        <f>_xlfn.XLOOKUP(B22,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>20745.714285714286</v>
+        <f>_xlfn.XLOOKUP(B22,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>20795.333333333332</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -3620,12 +4034,12 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>_xlfn.XLOOKUP(A23,Sheet1!R$2:R$23,Sheet1!B$2:B$23)</f>
+        <f>_xlfn.XLOOKUP(A23,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
         <v>11_4</v>
       </c>
       <c r="C23" s="11">
-        <f>_xlfn.XLOOKUP(B23,Sheet1!B$2:B$23,Sheet1!Q$2:Q$23)</f>
-        <v>18997.142857142859</v>
+        <f>_xlfn.XLOOKUP(B23,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
+        <v>19349.333333333332</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>

--- a/cloud/zuma.xlsx
+++ b/cloud/zuma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUAN\Desktop\thanh-luan-nguyen\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B35B8EE-6F54-466A-8311-7C82EAD8EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42095CBE-56DD-495A-8924-B56199AB017F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="13440" yWindow="3000" windowWidth="12750" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,6 +289,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,10 +391,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$Q$25</c:f>
+              <c:f>Sheet1!$C$25:$Y$25</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>21608.18181818182</c:v>
                 </c:pt>
@@ -433,6 +439,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>24252.727272727272</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23441.81818181818</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24452.272727272728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,16 +1469,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="25" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="19" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="6.125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="9" style="1"/>
     <col min="28" max="28" width="35.375" style="1" customWidth="1"/>
     <col min="29" max="29" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -1544,8 +1556,12 @@
       <c r="Q2" s="2">
         <v>25860</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="2">
+        <v>25580</v>
+      </c>
+      <c r="S2" s="2">
+        <v>27010</v>
+      </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -1553,8 +1569,8 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="5">
-        <f>AVERAGE(C2:Q2)</f>
-        <v>25085.333333333332</v>
+        <f>AVERAGE(C2:Y2)</f>
+        <v>25227.647058823528</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA23" si="0">RANK(Z2,Z$2:Z$23)</f>
@@ -1614,8 +1630,12 @@
       <c r="Q3" s="2">
         <v>24750</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="2">
+        <v>24860</v>
+      </c>
+      <c r="S3" s="2">
+        <v>25190</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1623,15 +1643,15 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="5">
-        <f>AVERAGE(C3:Q3)</f>
-        <v>22339.333333333332</v>
+        <f t="shared" ref="Z3:Z25" si="1">AVERAGE(C3:Y3)</f>
+        <v>22655.294117647059</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AC3" s="21">
-        <f t="shared" ref="AC3:AC23" si="1">MAX(C3:Q3)</f>
+        <f t="shared" ref="AC3:AC23" si="2">MAX(C3:Q3)</f>
         <v>27290</v>
       </c>
     </row>
@@ -1684,8 +1704,12 @@
       <c r="Q4" s="2">
         <v>21830</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="2">
+        <v>27100</v>
+      </c>
+      <c r="S4" s="2">
+        <v>26240</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -1693,15 +1717,15 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="5">
-        <f>AVERAGE(C4:Q4)</f>
-        <v>23154.666666666668</v>
+        <f t="shared" si="1"/>
+        <v>23568.235294117647</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC4" s="21">
-        <f t="shared" si="1"/>
+        <f>MAX(C4:Y4)</f>
         <v>27480</v>
       </c>
     </row>
@@ -1754,8 +1778,12 @@
       <c r="Q5" s="2">
         <v>27130</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="2">
+        <v>24630</v>
+      </c>
+      <c r="S5" s="2">
+        <v>26430</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1763,15 +1791,15 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="5">
-        <f>AVERAGE(C5:Q5)</f>
-        <v>22518.666666666668</v>
+        <f t="shared" si="1"/>
+        <v>22872.941176470587</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC5" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AC5:AC25" si="3">MAX(C5:Y5)</f>
         <v>29390</v>
       </c>
     </row>
@@ -1824,8 +1852,12 @@
       <c r="Q6" s="2">
         <v>19850</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="2">
+        <v>27790</v>
+      </c>
+      <c r="S6" s="2">
+        <v>24880</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1833,15 +1865,15 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="5">
-        <f>AVERAGE(C6:Q6)</f>
-        <v>24338.666666666668</v>
+        <f t="shared" si="1"/>
+        <v>24573.529411764706</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC6" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31110</v>
       </c>
     </row>
@@ -1894,8 +1926,12 @@
       <c r="Q7" s="2">
         <v>31210</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="R7" s="2">
+        <v>24060</v>
+      </c>
+      <c r="S7" s="2">
+        <v>23990</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1903,15 +1939,15 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="5">
-        <f>AVERAGE(C7:Q7)</f>
-        <v>24352.666666666668</v>
+        <f t="shared" si="1"/>
+        <v>24314.117647058825</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31210</v>
       </c>
     </row>
@@ -1964,8 +2000,12 @@
       <c r="Q8" s="2">
         <v>19710</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="R8" s="2">
+        <v>22660</v>
+      </c>
+      <c r="S8" s="2">
+        <v>21880</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1973,15 +2013,15 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="5">
-        <f>AVERAGE(C8:Q8)</f>
-        <v>22940.666666666668</v>
+        <f t="shared" si="1"/>
+        <v>22861.764705882353</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27160</v>
       </c>
     </row>
@@ -2034,8 +2074,12 @@
       <c r="Q9" s="8">
         <v>25910</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
+      <c r="R9" s="8">
+        <v>25300</v>
+      </c>
+      <c r="S9" s="8">
+        <v>25810</v>
+      </c>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
@@ -2043,15 +2087,15 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="5">
-        <f>AVERAGE(C9:Q9)</f>
-        <v>23296</v>
+        <f t="shared" si="1"/>
+        <v>23561.764705882353</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AC9" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27650</v>
       </c>
     </row>
@@ -2104,8 +2148,12 @@
       <c r="Q10" s="8">
         <v>24770</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="R10" s="8">
+        <v>21810</v>
+      </c>
+      <c r="S10" s="8">
+        <v>25100</v>
+      </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -2113,16 +2161,16 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="5">
-        <f>AVERAGE(C10:Q10)</f>
-        <v>22220.666666666668</v>
+        <f t="shared" si="1"/>
+        <v>22365.882352941175</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC10" s="21">
-        <f t="shared" si="1"/>
-        <v>25010</v>
+        <f t="shared" si="3"/>
+        <v>25100</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2174,8 +2222,12 @@
       <c r="Q11" s="8">
         <v>21490</v>
       </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="R11" s="8">
+        <v>18170</v>
+      </c>
+      <c r="S11" s="8">
+        <v>24000</v>
+      </c>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -2183,15 +2235,15 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="5">
-        <f>AVERAGE(C11:Q11)</f>
-        <v>20795.333333333332</v>
+        <f t="shared" si="1"/>
+        <v>20829.411764705881</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="AC11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25960</v>
       </c>
     </row>
@@ -2244,8 +2296,12 @@
       <c r="Q12" s="8">
         <v>24280</v>
       </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="R12" s="8">
+        <v>28230</v>
+      </c>
+      <c r="S12" s="8">
+        <v>19440</v>
+      </c>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -2253,16 +2309,16 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="5">
-        <f>AVERAGE(C12:Q12)</f>
-        <v>19349.333333333332</v>
+        <f t="shared" si="1"/>
+        <v>19877.058823529413</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="AC12" s="21">
-        <f t="shared" si="1"/>
-        <v>24280</v>
+        <f t="shared" si="3"/>
+        <v>28230</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2314,8 +2370,12 @@
       <c r="Q13" s="8">
         <v>27620</v>
       </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="R13" s="8">
+        <v>22430</v>
+      </c>
+      <c r="S13" s="8">
+        <v>23690</v>
+      </c>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
@@ -2323,15 +2383,15 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="5">
-        <f>AVERAGE(C13:Q13)</f>
-        <v>25009.333333333332</v>
+        <f t="shared" si="1"/>
+        <v>24780</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC13" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30310</v>
       </c>
     </row>
@@ -2384,8 +2444,12 @@
       <c r="Q14" s="8">
         <v>23690</v>
       </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="R14" s="8">
+        <v>23120</v>
+      </c>
+      <c r="S14" s="8">
+        <v>25430</v>
+      </c>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -2393,16 +2457,16 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="5">
-        <f>AVERAGE(C14:Q14)</f>
-        <v>22140</v>
+        <f t="shared" si="1"/>
+        <v>22391.176470588234</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC14" s="21">
-        <f t="shared" si="1"/>
-        <v>24850</v>
+        <f t="shared" si="3"/>
+        <v>25430</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2454,8 +2518,12 @@
       <c r="Q15" s="8">
         <v>24970</v>
       </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="R15" s="8">
+        <v>19250</v>
+      </c>
+      <c r="S15" s="8">
+        <v>24650</v>
+      </c>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
@@ -2463,15 +2531,15 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="5">
-        <f>AVERAGE(C15:Q15)</f>
-        <v>22087.333333333332</v>
+        <f t="shared" si="1"/>
+        <v>22071.176470588234</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AC15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24970</v>
       </c>
     </row>
@@ -2524,8 +2592,12 @@
       <c r="Q16" s="2">
         <v>24370</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="R16" s="2">
+        <v>24900</v>
+      </c>
+      <c r="S16" s="2">
+        <v>24240</v>
+      </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -2533,15 +2605,15 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="5">
-        <f>AVERAGE(C16:Q16)</f>
-        <v>24544</v>
+        <f t="shared" si="1"/>
+        <v>24547.058823529413</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC16" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29320</v>
       </c>
     </row>
@@ -2594,8 +2666,12 @@
       <c r="Q17" s="2">
         <v>23760</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="R17" s="2">
+        <v>19190</v>
+      </c>
+      <c r="S17" s="2">
+        <v>21660</v>
+      </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -2603,15 +2679,15 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="5">
-        <f>AVERAGE(C17:Q17)</f>
-        <v>21091.333333333332</v>
+        <f t="shared" si="1"/>
+        <v>21012.941176470587</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AC17" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27360</v>
       </c>
     </row>
@@ -2664,8 +2740,12 @@
       <c r="Q18" s="2">
         <v>23120</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="R18" s="2">
+        <v>21080</v>
+      </c>
+      <c r="S18" s="2">
+        <v>24890</v>
+      </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -2673,15 +2753,15 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="5">
-        <f>AVERAGE(C18:Q18)</f>
-        <v>22146</v>
+        <f t="shared" si="1"/>
+        <v>22244.705882352941</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC18" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28360</v>
       </c>
     </row>
@@ -2734,8 +2814,12 @@
       <c r="Q19" s="2">
         <v>20820</v>
       </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="R19" s="2">
+        <v>20690</v>
+      </c>
+      <c r="S19" s="2">
+        <v>24440</v>
+      </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -2743,15 +2827,15 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="5">
-        <f>AVERAGE(C19:Q19)</f>
-        <v>22128</v>
+        <f t="shared" si="1"/>
+        <v>22179.411764705881</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="AC19" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25620</v>
       </c>
     </row>
@@ -2804,8 +2888,12 @@
       <c r="Q20" s="2">
         <v>27070</v>
       </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="R20" s="2">
+        <v>25450</v>
+      </c>
+      <c r="S20" s="2">
+        <v>30640</v>
+      </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -2813,16 +2901,16 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="5">
-        <f>AVERAGE(C20:Q20)</f>
-        <v>23373.333333333332</v>
+        <f t="shared" si="1"/>
+        <v>23922.941176470587</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC20" s="21">
-        <f t="shared" si="1"/>
-        <v>27220</v>
+        <f t="shared" si="3"/>
+        <v>30640</v>
       </c>
     </row>
     <row r="21" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2874,8 +2962,12 @@
       <c r="Q21" s="2">
         <v>21580</v>
       </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="R21" s="2">
+        <v>20130</v>
+      </c>
+      <c r="S21" s="2">
+        <v>22860</v>
+      </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -2883,15 +2975,15 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="5">
-        <f>AVERAGE(C21:Q21)</f>
-        <v>22050.666666666668</v>
+        <f t="shared" si="1"/>
+        <v>21985.294117647059</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AC21" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25700</v>
       </c>
     </row>
@@ -2944,8 +3036,12 @@
       <c r="Q22" s="2">
         <v>25520</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="R22" s="22">
+        <v>23830</v>
+      </c>
+      <c r="S22" s="2">
+        <v>21920</v>
+      </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -2953,15 +3049,15 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="5">
-        <f>AVERAGE(C22:Q22)</f>
-        <v>23456.666666666668</v>
+        <f t="shared" si="1"/>
+        <v>23388.235294117647</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC22" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27830</v>
       </c>
     </row>
@@ -3014,8 +3110,12 @@
       <c r="Q23" s="8">
         <v>24250</v>
       </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="R23" s="23">
+        <v>25460</v>
+      </c>
+      <c r="S23" s="8">
+        <v>23560</v>
+      </c>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
@@ -3023,15 +3123,15 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="5">
-        <f>AVERAGE(C23:Q23)</f>
-        <v>24972.000000000004</v>
+        <f t="shared" si="1"/>
+        <v>24917.647058823532</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC23" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32040</v>
       </c>
     </row>
@@ -3040,67 +3140,73 @@
         <v>1</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24:I24" si="2">SUM(C2:C23)</f>
+        <f t="shared" ref="C24:I24" si="4">SUM(C2:C23)</f>
         <v>475380</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>512100</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>489970</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>509330</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>484170</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>499250</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>521420</v>
       </c>
       <c r="J24" s="20">
-        <f t="shared" ref="J24:Q24" si="3">SUM(J2:J23)</f>
+        <f t="shared" ref="J24:S24" si="5">SUM(J2:J23)</f>
         <v>507910.00000000006</v>
       </c>
       <c r="K24" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>511200</v>
       </c>
       <c r="L24" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>505150</v>
       </c>
       <c r="M24" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>498960</v>
       </c>
       <c r="N24" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>514580</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>464930</v>
       </c>
       <c r="P24" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>522940</v>
       </c>
       <c r="Q24" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>533560</v>
       </c>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
+      <c r="R24" s="20">
+        <f t="shared" si="5"/>
+        <v>515720</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" si="5"/>
+        <v>537950</v>
+      </c>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
@@ -3108,12 +3214,12 @@
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="5">
-        <f>AVERAGE(C24:P24)</f>
-        <v>501235</v>
+        <f t="shared" si="1"/>
+        <v>506148.23529411765</v>
       </c>
       <c r="AC24" s="21">
-        <f>SUM(AC2:AC23)</f>
-        <v>609400</v>
+        <f t="shared" si="3"/>
+        <v>537950</v>
       </c>
     </row>
     <row r="25" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3121,67 +3227,73 @@
         <v>2</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:H25" si="4">AVERAGE(C2:C23)</f>
+        <f t="shared" ref="C25:H25" si="6">AVERAGE(C2:C23)</f>
         <v>21608.18181818182</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23277.272727272728</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22271.363636363636</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23151.363636363636</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22007.727272727272</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22693.18181818182</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" ref="I25:Q25" si="5">AVERAGE(I2:I23)</f>
+        <f t="shared" ref="I25:S25" si="7">AVERAGE(I2:I23)</f>
         <v>23700.909090909092</v>
       </c>
       <c r="J25" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23086.818181818184</v>
       </c>
       <c r="K25" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23236.363636363636</v>
       </c>
       <c r="L25" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22961.363636363636</v>
       </c>
       <c r="M25" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22680</v>
       </c>
       <c r="N25" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23390</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21133.18181818182</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23770</v>
       </c>
       <c r="Q25" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24252.727272727272</v>
       </c>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
+      <c r="R25" s="20">
+        <f t="shared" si="7"/>
+        <v>23441.81818181818</v>
+      </c>
+      <c r="S25" s="20">
+        <f t="shared" si="7"/>
+        <v>24452.272727272728</v>
+      </c>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="20"/>
@@ -3189,12 +3301,12 @@
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="5">
-        <f>AVERAGE(C25:P25)</f>
-        <v>22783.409090909092</v>
+        <f t="shared" si="1"/>
+        <v>23006.73796791444</v>
       </c>
       <c r="AC25" s="21">
-        <f>AVERAGE(AC2:AC23)</f>
-        <v>27700</v>
+        <f t="shared" si="3"/>
+        <v>24452.272727272728</v>
       </c>
     </row>
     <row r="26" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3202,64 +3314,96 @@
         <v>29</v>
       </c>
       <c r="C26" s="1">
-        <f>RANK(C25,$C$25:$Q$25)</f>
+        <f>RANK(C25,$C$25:$Y$25)</f>
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:Y26" si="8">RANK(D25,$C$25:$Y$25)</f>
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" ref="D26:Q26" si="6">RANK(D25,$C$25:$Q$25)</f>
+      <c r="F26" s="1">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="E26" s="1">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="6"/>
+      <c r="S26" s="1">
+        <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+      <c r="T26" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U26" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V26" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W26" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X26" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3286,51 +3430,57 @@
         <v>23408.571428571428</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" ref="G30:I30" si="7">AVERAGE(G2:G8)</f>
+        <f t="shared" ref="G30:I30" si="9">AVERAGE(G2:G8)</f>
         <v>22410</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23310</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23595.714285714286</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:Q30" si="8">AVERAGE(J2:J8)</f>
+        <f t="shared" ref="J30:S30" si="10">AVERAGE(J2:J8)</f>
         <v>23374.285714285714</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24715.714285714286</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23615.714285714286</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22578.571428571428</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24695.714285714286</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21005.714285714286</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24542.857142857141</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24334.285714285714</v>
       </c>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="R30" s="3">
+        <f t="shared" si="10"/>
+        <v>25240</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="10"/>
+        <v>25088.571428571428</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3338,8 +3488,8 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="5">
-        <f>AVERAGE(C30:P30)</f>
-        <v>23475.612244897959</v>
+        <f>AVERAGE(C30:Y30)</f>
+        <v>23724.789915966387</v>
       </c>
     </row>
     <row r="31" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3347,67 +3497,73 @@
         <v>11</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" ref="C31:I31" si="9">AVERAGE(C9:C15)</f>
+        <f t="shared" ref="C31:I31" si="11">AVERAGE(C9:C15)</f>
         <v>21264.285714285714</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22638.571428571428</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20132.857142857141</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21210</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21384.285714285714</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22851.428571428572</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24234.285714285714</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" ref="J31:Q31" si="10">AVERAGE(J9:J15)</f>
+        <f t="shared" ref="J31:S31" si="12">AVERAGE(J9:J15)</f>
         <v>22484.285714285714</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22217.142857142859</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21101.428571428572</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22061.428571428572</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22291.428571428572</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21488.571428571428</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21888.571428571428</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24675.714285714286</v>
       </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="R31" s="3">
+        <f t="shared" si="12"/>
+        <v>22615.714285714286</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="12"/>
+        <v>24017.142857142859</v>
+      </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -3415,8 +3571,8 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="5">
-        <f>AVERAGE(C31:P31)</f>
-        <v>21946.326530612245</v>
+        <f t="shared" ref="Z31:Z32" si="13">AVERAGE(C31:Y31)</f>
+        <v>22268.067226890751</v>
       </c>
     </row>
     <row r="32" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3424,43 +3580,43 @@
         <v>12</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ref="C32:I32" si="11">AVERAGE(C16:C22)</f>
+        <f t="shared" ref="C32:I32" si="14">AVERAGE(C16:C22)</f>
         <v>19677.142857142859</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>22292.857142857141</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>23527.142857142859</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>24300</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>22360</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>20927.142857142859</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>23044.285714285714</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" ref="J32:Q32" si="12">AVERAGE(J16:J22)</f>
+        <f t="shared" ref="J32:S32" si="15">AVERAGE(J16:J22)</f>
         <v>23292.857142857141</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22361.428571428572</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24064.285714285714</v>
       </c>
       <c r="M32" s="3">
@@ -3468,23 +3624,29 @@
         <v>23132.857142857141</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>23254.285714285714</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20584.285714285714</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>23697.142857142859</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>23748.571428571428</v>
       </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="R32" s="3">
+        <f t="shared" si="15"/>
+        <v>22181.428571428572</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="15"/>
+        <v>24378.571428571428</v>
+      </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3492,8 +3654,8 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="5">
-        <f>AVERAGE(C32:P32)</f>
-        <v>22608.265306122448</v>
+        <f t="shared" si="13"/>
+        <v>22754.369747899156</v>
       </c>
     </row>
     <row r="33" spans="26:26" x14ac:dyDescent="0.4">
@@ -3507,6 +3669,30 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{39FA9AC6-61E5-4A24-ACDD-375547F68510}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C30:Y30</xm:f>
+              <xm:sqref>AB30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C31:Y31</xm:f>
+              <xm:sqref>AB31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C32:Y32</xm:f>
+              <xm:sqref>AB32</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{DF4E706F-BE19-42ED-9102-BC15BA0BD3D2}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -3609,34 +3795,6 @@
               <xm:f>Sheet1!C24:Y24</xm:f>
               <xm:sqref>AB24</xm:sqref>
             </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C25:Y25</xm:f>
-              <xm:sqref>AB25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{39FA9AC6-61E5-4A24-ACDD-375547F68510}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!C30:Y30</xm:f>
-              <xm:sqref>AB30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C31:Y31</xm:f>
-              <xm:sqref>AB31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C32:Y32</xm:f>
-              <xm:sqref>AB32</xm:sqref>
-            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
@@ -3676,7 +3834,7 @@
       </c>
       <c r="C2" s="11">
         <f>_xlfn.XLOOKUP(B2,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>25085.333333333332</v>
+        <v>25227.647058823528</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -3689,11 +3847,11 @@
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>11_5</v>
+        <v>13_1</v>
       </c>
       <c r="C3" s="11">
         <f>_xlfn.XLOOKUP(B3,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>25009.333333333332</v>
+        <v>24917.647058823532</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -3706,11 +3864,11 @@
       </c>
       <c r="B4" s="12" t="str">
         <f>_xlfn.XLOOKUP(A4,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>13_1</v>
+        <v>11_5</v>
       </c>
       <c r="C4" s="13">
         <f>_xlfn.XLOOKUP(B4,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>24972.000000000004</v>
+        <v>24780</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -3726,11 +3884,11 @@
       </c>
       <c r="B5" s="12" t="str">
         <f>_xlfn.XLOOKUP(A5,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>12_1</v>
+        <v>10_5</v>
       </c>
       <c r="C5" s="13">
         <f>_xlfn.XLOOKUP(B5,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>24544</v>
+        <v>24573.529411764706</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -3746,11 +3904,11 @@
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>10_6</v>
+        <v>12_1</v>
       </c>
       <c r="C6" s="11">
         <f>_xlfn.XLOOKUP(B6,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>24352.666666666668</v>
+        <v>24547.058823529413</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="16"/>
@@ -3763,11 +3921,11 @@
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>10_5</v>
+        <v>10_6</v>
       </c>
       <c r="C7" s="11">
         <f>_xlfn.XLOOKUP(B7,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>24338.666666666668</v>
+        <v>24314.117647058825</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="16"/>
@@ -3780,11 +3938,11 @@
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>12_7</v>
+        <v>12_5</v>
       </c>
       <c r="C8" s="11">
         <f>_xlfn.XLOOKUP(B8,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>23456.666666666668</v>
+        <v>23922.941176470587</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="16"/>
@@ -3797,11 +3955,11 @@
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>12_5</v>
+        <v>10_3</v>
       </c>
       <c r="C9" s="11">
         <f>_xlfn.XLOOKUP(B9,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>23373.333333333332</v>
+        <v>23568.235294117647</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="16"/>
@@ -3818,7 +3976,7 @@
       </c>
       <c r="C10" s="11">
         <f>_xlfn.XLOOKUP(B10,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>23296</v>
+        <v>23561.764705882353</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="16"/>
@@ -3831,11 +3989,11 @@
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>10_3</v>
+        <v>12_7</v>
       </c>
       <c r="C11" s="11">
         <f>_xlfn.XLOOKUP(B11,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>23154.666666666668</v>
+        <v>23388.235294117647</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -3848,11 +4006,11 @@
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>10_7</v>
+        <v>10_4</v>
       </c>
       <c r="C12" s="11">
         <f>_xlfn.XLOOKUP(B12,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>22940.666666666668</v>
+        <v>22872.941176470587</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3865,11 +4023,11 @@
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>10_4</v>
+        <v>10_7</v>
       </c>
       <c r="C13" s="11">
         <f>_xlfn.XLOOKUP(B13,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>22518.666666666668</v>
+        <v>22861.764705882353</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3886,7 +4044,7 @@
       </c>
       <c r="C14" s="11">
         <f>_xlfn.XLOOKUP(B14,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>22339.333333333332</v>
+        <v>22655.294117647059</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -3899,11 +4057,11 @@
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>11_2</v>
+        <v>11_6</v>
       </c>
       <c r="C15" s="11">
         <f>_xlfn.XLOOKUP(B15,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>22220.666666666668</v>
+        <v>22391.176470588234</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -3916,11 +4074,11 @@
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>12_3</v>
+        <v>11_2</v>
       </c>
       <c r="C16" s="11">
         <f>_xlfn.XLOOKUP(B16,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>22146</v>
+        <v>22365.882352941175</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -3933,11 +4091,11 @@
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17,Sheet1!AA$2:AA$23,Sheet1!B$2:B$23)</f>
-        <v>11_6</v>
+        <v>12_3</v>
       </c>
       <c r="C17" s="11">
         <f>_xlfn.XLOOKUP(B17,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>22140</v>
+        <v>22244.705882352941</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -3954,7 +4112,7 @@
       </c>
       <c r="C18" s="11">
         <f>_xlfn.XLOOKUP(B18,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>22128</v>
+        <v>22179.411764705881</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -3971,7 +4129,7 @@
       </c>
       <c r="C19" s="11">
         <f>_xlfn.XLOOKUP(B19,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>22087.333333333332</v>
+        <v>22071.176470588234</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -3988,7 +4146,7 @@
       </c>
       <c r="C20" s="11">
         <f>_xlfn.XLOOKUP(B20,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>22050.666666666668</v>
+        <v>21985.294117647059</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -4005,7 +4163,7 @@
       </c>
       <c r="C21" s="11">
         <f>_xlfn.XLOOKUP(B21,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>21091.333333333332</v>
+        <v>21012.941176470587</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -4022,7 +4180,7 @@
       </c>
       <c r="C22" s="11">
         <f>_xlfn.XLOOKUP(B22,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>20795.333333333332</v>
+        <v>20829.411764705881</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -4039,7 +4197,7 @@
       </c>
       <c r="C23" s="11">
         <f>_xlfn.XLOOKUP(B23,Sheet1!B$2:B$23,Sheet1!Z$2:Z$23)</f>
-        <v>19349.333333333332</v>
+        <v>19877.058823529413</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
